--- a/Jobs_DB设计书.xlsx
+++ b/Jobs_DB设计书.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29340" windowHeight="13040" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13840" tabRatio="732" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FacePage" sheetId="2" r:id="rId1"/>
     <sheet name="Tables_List" sheetId="1" r:id="rId2"/>
     <sheet name="業界 industries" sheetId="3" r:id="rId3"/>
-    <sheet name="職業 jobs" sheetId="4" r:id="rId4"/>
-    <sheet name="ユーザー users" sheetId="5" r:id="rId5"/>
+    <sheet name="職業 jobs" sheetId="7" r:id="rId4"/>
+    <sheet name="ユーザー users" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>テーブル総覧：</t>
   </si>
@@ -74,22 +74,166 @@
     <t>業界コード（10字）</t>
   </si>
   <si>
+    <t>industry_code</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>業界名称（25字）</t>
+  </si>
+  <si>
     <t>industry_name</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>業界名称（25字）</t>
-  </si>
-  <si>
-    <t>industry_code</t>
-  </si>
-  <si>
     <t>業界内容（100字）</t>
   </si>
   <si>
     <t>industry_description</t>
+  </si>
+  <si>
+    <t>職業テーブル</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>職業コード（10字）</t>
+  </si>
+  <si>
+    <t>jobs_code</t>
+  </si>
+  <si>
+    <t>industry_cod</t>
+  </si>
+  <si>
+    <t>職業名称（20字）</t>
+  </si>
+  <si>
+    <t>jobs_name</t>
+  </si>
+  <si>
+    <t>職務内容（200字）</t>
+  </si>
+  <si>
+    <t>jobs_description</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>求人要項（200字）</t>
+  </si>
+  <si>
+    <t>jobs_requirements</t>
+  </si>
+  <si>
+    <t>ユーザーテーブル</t>
+  </si>
+  <si>
+    <t>姓（20字）</t>
+  </si>
+  <si>
+    <t>users_family_name</t>
+  </si>
+  <si>
+    <t>名（20字）</t>
+  </si>
+  <si>
+    <t>users_given_name</t>
+  </si>
+  <si>
+    <t>セイ（20字）</t>
+  </si>
+  <si>
+    <t>users_gana_family_name</t>
+  </si>
+  <si>
+    <t>メイ（20字）</t>
+  </si>
+  <si>
+    <t>users_gana_given_name</t>
+  </si>
+  <si>
+    <t>ニックネーム（20字）</t>
+  </si>
+  <si>
+    <t>users_nick_name</t>
+  </si>
+  <si>
+    <t>誕生日（10字）</t>
+  </si>
+  <si>
+    <t>users_birthdate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>性別（10字）</t>
+  </si>
+  <si>
+    <t>users_gender</t>
+  </si>
+  <si>
+    <t>お住まいのエリア（20字）</t>
+  </si>
+  <si>
+    <t>users_residential_area</t>
+  </si>
+  <si>
+    <t>ご連絡先（携帯電話）（20字）</t>
+  </si>
+  <si>
+    <t>users_phone_number</t>
+  </si>
+  <si>
+    <t>メールアドレス（50字)</t>
+  </si>
+  <si>
+    <t>users_emailaddress</t>
+  </si>
+  <si>
+    <t>パスワード（50字）</t>
+  </si>
+  <si>
+    <t>users_password</t>
+  </si>
+  <si>
+    <t>最終学歴（20字）</t>
+  </si>
+  <si>
+    <t>users_highest_education_level</t>
+  </si>
+  <si>
+    <t>卒業区分（10字）</t>
+  </si>
+  <si>
+    <t>users_graduation_classification</t>
+  </si>
+  <si>
+    <t>最終学歴の卒業時間（20字）</t>
+  </si>
+  <si>
+    <t>users_graduation_time</t>
+  </si>
+  <si>
+    <t>現在の勤務状況（20字）</t>
+  </si>
+  <si>
+    <t>users_current_employment_status</t>
+  </si>
+  <si>
+    <t>希望する業種（50字）</t>
+  </si>
+  <si>
+    <t>users_desiredIndustry</t>
+  </si>
+  <si>
+    <t>希望する職種（50字）</t>
+  </si>
+  <si>
+    <t>users_desiredOccupation</t>
   </si>
 </sst>
 </file>
@@ -97,23 +241,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -121,83 +265,134 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -205,29 +400,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -235,41 +408,12 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,192 +434,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -499,23 +649,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -564,21 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -596,172 +724,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -771,13 +928,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -785,55 +945,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - アクセント 6" xfId="1" builtinId="51"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="アクセント 5" xfId="3" builtinId="45"/>
+    <cellStyle name="40% - アクセント 4" xfId="4" builtinId="43"/>
+    <cellStyle name="20% - アクセント 4" xfId="5" builtinId="42"/>
+    <cellStyle name="アクセント 4" xfId="6" builtinId="41"/>
+    <cellStyle name="40% - アクセント 3" xfId="7" builtinId="39"/>
+    <cellStyle name="タイトル" xfId="8" builtinId="15"/>
+    <cellStyle name="20% - アクセント 3" xfId="9" builtinId="38"/>
+    <cellStyle name="60% - アクセント 2" xfId="10" builtinId="36"/>
+    <cellStyle name="20% - アクセント 2" xfId="11" builtinId="34"/>
+    <cellStyle name="60% - アクセント 1" xfId="12" builtinId="32"/>
+    <cellStyle name="アクセント 1" xfId="13" builtinId="29"/>
+    <cellStyle name="60% - アクセント 4" xfId="14" builtinId="44"/>
+    <cellStyle name="どちらでもない" xfId="15" builtinId="28"/>
+    <cellStyle name="見出し 3" xfId="16" builtinId="18"/>
+    <cellStyle name="40% - アクセント 1" xfId="17" builtinId="31"/>
+    <cellStyle name="パーセント" xfId="18" builtinId="5"/>
+    <cellStyle name="集計" xfId="19" builtinId="25"/>
+    <cellStyle name="60% - アクセント 5" xfId="20" builtinId="48"/>
+    <cellStyle name="20% - アクセント 6" xfId="21" builtinId="50"/>
+    <cellStyle name="良い" xfId="22" builtinId="26"/>
+    <cellStyle name="見出し 2" xfId="23" builtinId="17"/>
+    <cellStyle name="リンクセル" xfId="24" builtinId="24"/>
+    <cellStyle name="20% - アクセント 5" xfId="25" builtinId="46"/>
+    <cellStyle name="桁区切り[0]" xfId="26" builtinId="6"/>
+    <cellStyle name="見出し 1" xfId="27" builtinId="16"/>
+    <cellStyle name="説明文" xfId="28" builtinId="53"/>
+    <cellStyle name="通貨" xfId="29" builtinId="4"/>
+    <cellStyle name="出力" xfId="30" builtinId="21"/>
+    <cellStyle name="アクセント 2" xfId="31" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="32" builtinId="9"/>
+    <cellStyle name="見出し 4" xfId="33" builtinId="19"/>
+    <cellStyle name="メモ" xfId="34" builtinId="10"/>
+    <cellStyle name="40% - アクセント 5" xfId="35" builtinId="47"/>
+    <cellStyle name="計算" xfId="36" builtinId="22"/>
+    <cellStyle name="アクセント 6" xfId="37" builtinId="49"/>
+    <cellStyle name="ハイパーリンク" xfId="38" builtinId="8"/>
+    <cellStyle name="60% - アクセント 3" xfId="39" builtinId="40"/>
+    <cellStyle name="アクセント 3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% - アクセント 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - アクセント 1" xfId="42" builtinId="30"/>
+    <cellStyle name="チェックセル" xfId="43" builtinId="23"/>
+    <cellStyle name="通貨[0]" xfId="44" builtinId="7"/>
+    <cellStyle name="桁区切り" xfId="45" builtinId="3"/>
+    <cellStyle name="60% - アクセント 6" xfId="46" builtinId="52"/>
+    <cellStyle name="悪い" xfId="47" builtinId="27"/>
+    <cellStyle name="警告文" xfId="48" builtinId="11"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1190,10 +1350,10 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="37.2" spans="1:1">
-      <c r="A1" s="11"/>
+      <c r="A1" s="10"/>
     </row>
     <row r="3" ht="37.2" spans="1:1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1207,7 +1367,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1225,34 +1385,34 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1271,97 +1431,94 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="23.2" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.7692307692308" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6153846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5384615384615" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69230769230769" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7692307692308" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.6153846153846" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5384615384615" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.69230769230769" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4"/>
-    </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1374,14 +1531,211 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="44.3846153846154" customWidth="1"/>
+    <col min="2" max="2" width="45.0288461538462" customWidth="1"/>
+    <col min="3" max="3" width="14.2596153846154" customWidth="1"/>
+    <col min="4" max="4" width="8.80769230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="23.2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="23.2" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="23.2" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="23.2" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="23.2" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="23.2" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="23.2" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="23.2" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" ht="23.2" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" ht="23.2" spans="1:4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" ht="23.2" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" ht="23.2" spans="1:4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" ht="23.2" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" ht="23.2" spans="1:4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" ht="23.2" spans="1:4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" ht="23.2" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" ht="23.2" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" ht="23.2" spans="1:4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" ht="23.2" spans="1:4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" ht="23.2" spans="1:4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" ht="23.2" spans="1:4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1390,14 +1744,336 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="45.5192307692308" customWidth="1"/>
+    <col min="2" max="2" width="47.7596153846154" customWidth="1"/>
+    <col min="3" max="3" width="18.2692307692308" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="23.2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="23.2" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="23.2" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="23.2" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="23.2" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="23.2" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="23.2" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="23.2" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="23.2" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="23.2" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="23.2" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="23.2" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="23.2" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="23.2" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="23.2" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="23.2" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="23.2" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="23.2" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="23.2" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="23.2" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="23.2" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="23.2" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" ht="23.2" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" ht="23.2" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" ht="23.2" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" ht="23.2" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Jobs_DB设计书.xlsx
+++ b/Jobs_DB设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13840" tabRatio="732" activeTab="4"/>
+    <workbookView windowWidth="17860" windowHeight="13160" tabRatio="732" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FacePage" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>テーブル総覧：</t>
   </si>
@@ -227,13 +227,22 @@
     <t>希望する業種（50字）</t>
   </si>
   <si>
-    <t>users_desiredIndustry</t>
+    <t>users_desired_industry</t>
   </si>
   <si>
     <t>希望する職種（50字）</t>
   </si>
   <si>
-    <t>users_desiredOccupation</t>
+    <t>users_desired_occupation</t>
+  </si>
+  <si>
+    <t>登録時間（32字）</t>
+  </si>
+  <si>
+    <t>users_registration_time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -241,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -285,7 +294,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,20 +324,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +337,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -327,91 +421,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -440,19 +449,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,151 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,17 +671,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,16 +696,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,15 +715,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,150 +753,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1746,8 +1755,8 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2044,10 +2053,18 @@
       </c>
     </row>
     <row r="23" ht="23.2" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" ht="23.2" spans="1:4">
       <c r="A24" s="5"/>

--- a/Jobs_DB设计书.xlsx
+++ b/Jobs_DB设计书.xlsx
@@ -1755,8 +1755,8 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
